--- a/Хеши.xlsx
+++ b/Хеши.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\study\Работа\С++\Моё\1Первая глава\123\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2DC7AF-49BB-4041-A889-C49DC0FCFC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130AEF8-52DD-40CF-A492-B064AFDE66BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{1535A47F-42AF-4245-A4C7-CDE2C86E2254}"/>
   </bookViews>
@@ -1249,7 +1249,7 @@
   <dimension ref="I1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
